--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L450"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17188,6 +17188,48 @@
         </is>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>305.2465217391305</v>
+      </c>
+      <c r="C451" t="n">
+        <v>284.9085714285715</v>
+      </c>
+      <c r="D451" t="n">
+        <v>280.45</v>
+      </c>
+      <c r="E451" t="n">
+        <v>288.0566666666667</v>
+      </c>
+      <c r="F451" t="n">
+        <v>308.7966666666667</v>
+      </c>
+      <c r="G451" t="n">
+        <v>328.0985714285715</v>
+      </c>
+      <c r="H451" t="n">
+        <v>338.85</v>
+      </c>
+      <c r="I451" t="n">
+        <v>346.18</v>
+      </c>
+      <c r="J451" t="n">
+        <v>354.33</v>
+      </c>
+      <c r="K451" t="n">
+        <v>340.6685714285715</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17199,7 +17241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22397,6 +22439,16 @@
       </c>
       <c r="B519" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -22565,28 +22617,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4040526256057131</v>
+        <v>-0.3907607995690338</v>
       </c>
       <c r="J2" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03457547774273784</v>
+        <v>0.03232735189329372</v>
       </c>
       <c r="M2" t="n">
-        <v>13.18590120757273</v>
+        <v>13.22518765513743</v>
       </c>
       <c r="N2" t="n">
-        <v>257.2127187523062</v>
+        <v>258.4515013172127</v>
       </c>
       <c r="O2" t="n">
-        <v>16.03785268520403</v>
+        <v>16.07642688277506</v>
       </c>
       <c r="P2" t="n">
-        <v>289.2041196530899</v>
+        <v>289.0737225462392</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22642,28 +22694,28 @@
         <v>0.0384</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4015590616975726</v>
+        <v>-0.396709518466046</v>
       </c>
       <c r="J3" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03684293491406276</v>
+        <v>0.03613242329761635</v>
       </c>
       <c r="M3" t="n">
-        <v>12.16063968868774</v>
+        <v>12.15347133706995</v>
       </c>
       <c r="N3" t="n">
-        <v>232.1696867890456</v>
+        <v>231.7605369696253</v>
       </c>
       <c r="O3" t="n">
-        <v>15.23711543531273</v>
+        <v>15.22368342319379</v>
       </c>
       <c r="P3" t="n">
-        <v>285.692307999122</v>
+        <v>285.6442619490221</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22719,28 +22771,28 @@
         <v>0.0465</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4782026214450398</v>
+        <v>-0.4771221027000633</v>
       </c>
       <c r="J4" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0419907227940497</v>
+        <v>0.04201538844372721</v>
       </c>
       <c r="M4" t="n">
-        <v>12.92003913655969</v>
+        <v>12.8890595942907</v>
       </c>
       <c r="N4" t="n">
-        <v>287.4626721757297</v>
+        <v>286.6607447833296</v>
       </c>
       <c r="O4" t="n">
-        <v>16.95472418459615</v>
+        <v>16.93105858425071</v>
       </c>
       <c r="P4" t="n">
-        <v>290.50717721334</v>
+        <v>290.4964870521681</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22796,28 +22848,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4265924610832351</v>
+        <v>-0.42665795639556</v>
       </c>
       <c r="J5" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03467676749264292</v>
+        <v>0.03486427012391413</v>
       </c>
       <c r="M5" t="n">
-        <v>13.10209931608578</v>
+        <v>13.06469725235913</v>
       </c>
       <c r="N5" t="n">
-        <v>275.962678757353</v>
+        <v>275.167441508143</v>
       </c>
       <c r="O5" t="n">
-        <v>16.61212445045344</v>
+        <v>16.58817173494846</v>
       </c>
       <c r="P5" t="n">
-        <v>299.0278011716354</v>
+        <v>299.0284546480024</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22873,28 +22925,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2730112540962084</v>
+        <v>-0.2711251441171193</v>
       </c>
       <c r="J6" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01097596702333148</v>
+        <v>0.0108839708395625</v>
       </c>
       <c r="M6" t="n">
-        <v>15.01074465443247</v>
+        <v>14.97818737374083</v>
       </c>
       <c r="N6" t="n">
-        <v>368.5661285723535</v>
+        <v>367.5458637485429</v>
       </c>
       <c r="O6" t="n">
-        <v>19.19807616852151</v>
+        <v>19.17148569486838</v>
       </c>
       <c r="P6" t="n">
-        <v>312.1889838007888</v>
+        <v>312.170441964099</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22950,28 +23002,28 @@
         <v>0.0421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04886320051248635</v>
+        <v>0.04671980701784079</v>
       </c>
       <c r="J7" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002173479370953801</v>
+        <v>0.0001996939402456599</v>
       </c>
       <c r="M7" t="n">
-        <v>19.78951620660201</v>
+        <v>19.74677151262225</v>
       </c>
       <c r="N7" t="n">
-        <v>613.6482342247796</v>
+        <v>612.0084179694001</v>
       </c>
       <c r="O7" t="n">
-        <v>24.77192431412585</v>
+        <v>24.73880389124341</v>
       </c>
       <c r="P7" t="n">
-        <v>331.1618955005513</v>
+        <v>331.1828422817659</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23027,28 +23079,28 @@
         <v>0.0476</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1306076324582947</v>
+        <v>0.1222115004978823</v>
       </c>
       <c r="J8" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001095785865930954</v>
+        <v>0.0009639187983525588</v>
       </c>
       <c r="M8" t="n">
-        <v>23.81250327344572</v>
+        <v>23.79142410671393</v>
       </c>
       <c r="N8" t="n">
-        <v>875.9621959490405</v>
+        <v>874.1828608429871</v>
       </c>
       <c r="O8" t="n">
-        <v>29.59665852674995</v>
+        <v>29.56658351658147</v>
       </c>
       <c r="P8" t="n">
-        <v>351.6189537117352</v>
+        <v>351.7000980922207</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23104,28 +23156,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3024294042596809</v>
+        <v>0.2967157791416177</v>
       </c>
       <c r="J9" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K9" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005040024690166844</v>
+        <v>0.004878533611733404</v>
       </c>
       <c r="M9" t="n">
-        <v>25.42573460429969</v>
+        <v>25.37639275558107</v>
       </c>
       <c r="N9" t="n">
-        <v>1033.436474874063</v>
+        <v>1030.582462718868</v>
       </c>
       <c r="O9" t="n">
-        <v>32.14710678854418</v>
+        <v>32.10268622278933</v>
       </c>
       <c r="P9" t="n">
-        <v>348.8256822649836</v>
+        <v>348.8802473078874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23181,28 +23233,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.216571679284884</v>
+        <v>0.2335684663822667</v>
       </c>
       <c r="J10" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002218312988251481</v>
+        <v>0.002587566703054267</v>
       </c>
       <c r="M10" t="n">
-        <v>25.23552296296828</v>
+        <v>25.24638887187913</v>
       </c>
       <c r="N10" t="n">
-        <v>1164.821076402525</v>
+        <v>1163.987889045202</v>
       </c>
       <c r="O10" t="n">
-        <v>34.12947518498526</v>
+        <v>34.11726672881639</v>
       </c>
       <c r="P10" t="n">
-        <v>318.707272542582</v>
+        <v>318.5388930871939</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23258,28 +23310,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6127559591574687</v>
+        <v>-0.5805249382445327</v>
       </c>
       <c r="J11" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01075366723246485</v>
+        <v>0.00966524201593133</v>
       </c>
       <c r="M11" t="n">
-        <v>33.00313037597346</v>
+        <v>33.02579438471327</v>
       </c>
       <c r="N11" t="n">
-        <v>1933.495592661876</v>
+        <v>1937.671083490725</v>
       </c>
       <c r="O11" t="n">
-        <v>43.97153161605672</v>
+        <v>44.01898548911281</v>
       </c>
       <c r="P11" t="n">
-        <v>299.0725919569736</v>
+        <v>298.7548583482948</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -23316,7 +23368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L450"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46888,6 +46940,68 @@
         </is>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>-45.90714984046991,170.56365051029104</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-45.90709467590112,170.56272326905057</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-45.90718005234429,170.561832744369</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-45.90737221286655,170.56097011387385</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-45.90767872416672,170.56015193493675</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>-45.90792840589092,170.55930953694207</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>-45.908055800101366,170.5584217892343</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>-45.90815282067575,170.55752590087025</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>-45.90823519866623,170.5566032045479</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>-45.907955211064056,170.5557554000172</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -22462,7 +22462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22553,35 +22553,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22640,27 +22645,28 @@
       <c r="P2" t="n">
         <v>289.0737225462392</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.56294476033725 -45.90444823621308, 170.5649745951256 -45.91221775982764)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.5629447603372</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.90444823621308</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.5649745951256</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.91221775982764</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.5639596777314</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.90833299802036</v>
       </c>
     </row>
@@ -22717,27 +22723,28 @@
       <c r="P3" t="n">
         <v>285.6442619490221</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.56206456993982 -45.90457307122458, 170.56409432260514 -45.91234259771109)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.5620645699398</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.90457307122458</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.5640943226051</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.91234259771109</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.5630794462725</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.90845783446784</v>
       </c>
     </row>
@@ -22794,27 +22801,28 @@
       <c r="P4" t="n">
         <v>290.4964870521681</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.5611843795428 -45.90469790595576, 170.56321405008404 -45.912467435313005)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.5611843795428</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.90469790595576</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.563214050084</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.912467435313</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.5621992148134</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.90858267063438</v>
       </c>
     </row>
@@ -22871,27 +22879,28 @@
       <c r="P5" t="n">
         <v>299.0284546480024</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.56030418914608 -45.90482274040657, 170.5623337775622 -45.91259227263337)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.5603041891461</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.90482274040657</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.5623337775622</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.91259227263337</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.5613189833541</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.90870750651997</v>
       </c>
     </row>
@@ -22948,27 +22957,28 @@
       <c r="P6" t="n">
         <v>312.170441964099</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.55958266001292 -45.90492919828708, 170.56120112162418 -45.912745513016674)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.5595826600129</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.90492919828708</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.5612011216242</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.91274551301667</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.5603918908186</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.90883735565188</v>
       </c>
     </row>
@@ -23025,27 +23035,28 @@
       <c r="P7" t="n">
         <v>331.1828422817659</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.55902307760365 -45.904983440248635, 170.5597895531603 -45.91286269202544)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.5590230776037</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.90498344024864</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.5597895531603</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.91286269202544</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.559406315382</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.90892306613704</v>
       </c>
     </row>
@@ -23102,27 +23113,28 @@
       <c r="P8" t="n">
         <v>351.7000980922207</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.55829479480272 -45.905008617320185, 170.5586238005553 -45.912902633844666)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.5582947948027</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.90500861732018</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.5586238005553</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.91290263384467</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.558459297679</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.90895562558242</v>
       </c>
     </row>
@@ -23179,27 +23191,28 @@
       <c r="P9" t="n">
         <v>348.8802473078874</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.55746543660322 -45.90503869103329, 170.55761875743485 -45.91293531071268)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.5574654366032</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.90503869103329</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.5576187574349</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.91293531071268</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.5575420970191</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.90898700087298</v>
       </c>
     </row>
@@ -23256,27 +23269,28 @@
       <c r="P10" t="n">
         <v>318.5388930871939</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.55723337622013 -45.9050779636639, 170.55567201014216 -45.91289985912997)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.5572333762201</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.9050779636639</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.5556720101422</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.91289985912997</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.5564526931811</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.90898891139693</v>
       </c>
     </row>
@@ -23333,27 +23347,28 @@
       <c r="P11" t="n">
         <v>298.7548583482948</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.55694444118012 -45.90500492837424, 170.55388007901834 -45.9126076118633)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.5569444411801</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.90500492837424</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.5538800790183</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.9126076118633</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.5554122600992</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.90880627011877</v>
       </c>
     </row>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17230,6 +17230,174 @@
         </is>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>316.3430434782609</v>
+      </c>
+      <c r="C452" t="n">
+        <v>295.6928571428572</v>
+      </c>
+      <c r="D452" t="n">
+        <v>289.28</v>
+      </c>
+      <c r="E452" t="n">
+        <v>283.57</v>
+      </c>
+      <c r="F452" t="n">
+        <v>301.04</v>
+      </c>
+      <c r="G452" t="n">
+        <v>337.3728571428572</v>
+      </c>
+      <c r="H452" t="n">
+        <v>346.14</v>
+      </c>
+      <c r="I452" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="J452" t="n">
+        <v>356.17</v>
+      </c>
+      <c r="K452" t="n">
+        <v>358.7628571428572</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>321.8026086956522</v>
+      </c>
+      <c r="C453" t="n">
+        <v>314.5928571428572</v>
+      </c>
+      <c r="D453" t="n">
+        <v>304.68</v>
+      </c>
+      <c r="E453" t="n">
+        <v>314.0166666666667</v>
+      </c>
+      <c r="F453" t="n">
+        <v>319.6566666666667</v>
+      </c>
+      <c r="G453" t="n">
+        <v>346.0828571428572</v>
+      </c>
+      <c r="H453" t="n">
+        <v>375.66</v>
+      </c>
+      <c r="I453" t="n">
+        <v>385.76</v>
+      </c>
+      <c r="J453" t="n">
+        <v>377.53</v>
+      </c>
+      <c r="K453" t="n">
+        <v>372.4928571428572</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>320.5813043478261</v>
+      </c>
+      <c r="C454" t="n">
+        <v>301.9685714285715</v>
+      </c>
+      <c r="D454" t="n">
+        <v>294.73</v>
+      </c>
+      <c r="E454" t="n">
+        <v>293.14</v>
+      </c>
+      <c r="F454" t="n">
+        <v>301.45</v>
+      </c>
+      <c r="G454" t="n">
+        <v>330.5185714285714</v>
+      </c>
+      <c r="H454" t="n">
+        <v>369.96</v>
+      </c>
+      <c r="I454" t="n">
+        <v>388.2</v>
+      </c>
+      <c r="J454" t="n">
+        <v>361.03</v>
+      </c>
+      <c r="K454" t="n">
+        <v>355.4785714285715</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>298.6234782608695</v>
+      </c>
+      <c r="C455" t="n">
+        <v>293.8414285714285</v>
+      </c>
+      <c r="D455" t="n">
+        <v>299.23</v>
+      </c>
+      <c r="E455" t="n">
+        <v>306.6233333333333</v>
+      </c>
+      <c r="F455" t="n">
+        <v>322.2533333333333</v>
+      </c>
+      <c r="G455" t="n">
+        <v>344.4414285714286</v>
+      </c>
+      <c r="H455" t="n">
+        <v>369.49</v>
+      </c>
+      <c r="I455" t="n">
+        <v>395.48</v>
+      </c>
+      <c r="J455" t="n">
+        <v>374.17</v>
+      </c>
+      <c r="K455" t="n">
+        <v>367.3414285714285</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17241,7 +17409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22449,6 +22617,46 @@
       </c>
       <c r="B520" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -22622,28 +22830,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3907607995690338</v>
+        <v>-0.320501269500839</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03232735189329372</v>
+        <v>0.02122630233984724</v>
       </c>
       <c r="M2" t="n">
-        <v>13.22518765513743</v>
+        <v>13.4802206759321</v>
       </c>
       <c r="N2" t="n">
-        <v>258.4515013172127</v>
+        <v>270.2228657071232</v>
       </c>
       <c r="O2" t="n">
-        <v>16.07642688277506</v>
+        <v>16.43845691380804</v>
       </c>
       <c r="P2" t="n">
-        <v>289.0737225462392</v>
+        <v>288.3774584943525</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22700,28 +22908,28 @@
         <v>0.0384</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.396709518466046</v>
+        <v>-0.3438850745586895</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03613242329761635</v>
+        <v>0.02702802497181733</v>
       </c>
       <c r="M3" t="n">
-        <v>12.15347133706995</v>
+        <v>12.30819474393547</v>
       </c>
       <c r="N3" t="n">
-        <v>231.7605369696253</v>
+        <v>237.274692616298</v>
       </c>
       <c r="O3" t="n">
-        <v>15.22368342319379</v>
+        <v>15.40372333613851</v>
       </c>
       <c r="P3" t="n">
-        <v>285.6442619490221</v>
+        <v>285.1157573146734</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22778,28 +22986,28 @@
         <v>0.0465</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4771221027000633</v>
+        <v>-0.4391685759665165</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K4" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04201538844372721</v>
+        <v>0.03604741099458431</v>
       </c>
       <c r="M4" t="n">
-        <v>12.8890595942907</v>
+        <v>12.94033328187827</v>
       </c>
       <c r="N4" t="n">
-        <v>286.6607447833296</v>
+        <v>287.6057722864035</v>
       </c>
       <c r="O4" t="n">
-        <v>16.93105858425071</v>
+        <v>16.95894372555093</v>
       </c>
       <c r="P4" t="n">
-        <v>290.4964870521681</v>
+        <v>290.1170811160088</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22856,28 +23064,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.42665795639556</v>
+        <v>-0.4032870108994328</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K5" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03486427012391413</v>
+        <v>0.03158314501593418</v>
       </c>
       <c r="M5" t="n">
-        <v>13.06469725235913</v>
+        <v>13.07176334104748</v>
       </c>
       <c r="N5" t="n">
-        <v>275.167441508143</v>
+        <v>275.0090072937718</v>
       </c>
       <c r="O5" t="n">
-        <v>16.58817173494846</v>
+        <v>16.58339552967883</v>
       </c>
       <c r="P5" t="n">
-        <v>299.0284546480024</v>
+        <v>298.7926833339941</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22934,28 +23142,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2711251441171193</v>
+        <v>-0.2587778555144208</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K6" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0108839708395625</v>
+        <v>0.01010227260532048</v>
       </c>
       <c r="M6" t="n">
-        <v>14.97818737374083</v>
+        <v>14.92285479505713</v>
       </c>
       <c r="N6" t="n">
-        <v>367.5458637485429</v>
+        <v>364.8709395009456</v>
       </c>
       <c r="O6" t="n">
-        <v>19.17148569486838</v>
+        <v>19.10159520827895</v>
       </c>
       <c r="P6" t="n">
-        <v>312.170441964099</v>
+        <v>312.0475876628728</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23012,28 +23220,28 @@
         <v>0.0421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04671980701784079</v>
+        <v>0.06092588807345426</v>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K7" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001996939402456599</v>
+        <v>0.0003460160374235688</v>
       </c>
       <c r="M7" t="n">
-        <v>19.74677151262225</v>
+        <v>19.62066677763332</v>
       </c>
       <c r="N7" t="n">
-        <v>612.0084179694001</v>
+        <v>606.3058472732624</v>
       </c>
       <c r="O7" t="n">
-        <v>24.73880389124341</v>
+        <v>24.62327856466849</v>
       </c>
       <c r="P7" t="n">
-        <v>331.1828422817659</v>
+        <v>331.0425384369882</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23090,28 +23298,28 @@
         <v>0.0476</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1222115004978823</v>
+        <v>0.1438148305647283</v>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K8" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009639187983525588</v>
+        <v>0.001359376599991635</v>
       </c>
       <c r="M8" t="n">
-        <v>23.79142410671393</v>
+        <v>23.68575615453507</v>
       </c>
       <c r="N8" t="n">
-        <v>874.1828608429871</v>
+        <v>866.9154154476065</v>
       </c>
       <c r="O8" t="n">
-        <v>29.56658351658147</v>
+        <v>29.44342737263457</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7000980922207</v>
+        <v>351.4889013248941</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23168,28 +23376,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2967157791416177</v>
+        <v>0.3512702593806779</v>
       </c>
       <c r="J9" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K9" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004878533611733404</v>
+        <v>0.006914670346924723</v>
       </c>
       <c r="M9" t="n">
-        <v>25.37639275558107</v>
+        <v>25.39796583104954</v>
       </c>
       <c r="N9" t="n">
-        <v>1030.582462718868</v>
+        <v>1028.070255614481</v>
       </c>
       <c r="O9" t="n">
-        <v>32.10268622278933</v>
+        <v>32.06353467125047</v>
       </c>
       <c r="P9" t="n">
-        <v>348.8802473078874</v>
+        <v>348.3531756433267</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23246,28 +23454,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2335684663822667</v>
+        <v>0.3284158756443623</v>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002587566703054267</v>
+        <v>0.005119044892005431</v>
       </c>
       <c r="M10" t="n">
-        <v>25.24638887187913</v>
+        <v>25.42765967762132</v>
       </c>
       <c r="N10" t="n">
-        <v>1163.987889045202</v>
+        <v>1172.347961453466</v>
       </c>
       <c r="O10" t="n">
-        <v>34.11726672881639</v>
+        <v>34.23956719138643</v>
       </c>
       <c r="P10" t="n">
-        <v>318.5388930871939</v>
+        <v>317.5893708664025</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23324,28 +23532,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5805249382445327</v>
+        <v>-0.4039152862916466</v>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K11" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00966524201593133</v>
+        <v>0.004622418583187682</v>
       </c>
       <c r="M11" t="n">
-        <v>33.02579438471327</v>
+        <v>33.30608249509903</v>
       </c>
       <c r="N11" t="n">
-        <v>1937.671083490725</v>
+        <v>1991.037880202628</v>
       </c>
       <c r="O11" t="n">
-        <v>44.01898548911281</v>
+        <v>44.62104750230129</v>
       </c>
       <c r="P11" t="n">
-        <v>298.7548583482948</v>
+        <v>296.9952472141809</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23383,7 +23591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47017,6 +47225,254 @@
         </is>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-45.90724805088129,170.56367616736887</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-45.90719012295945,170.56274820304264</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-45.907258202947396,170.56185315907672</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-45.9073325032321,170.56095974123846</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-45.907609658833394,170.5601376346923</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-45.908011650525395,170.55931763456906</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-45.90812135700696,170.55842452146274</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-45.90824718549215,170.55752773306125</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-45.908251593852576,170.55659993192432</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-45.908111912054395,170.5556922415389</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-45.907296371078935,170.5636887908588</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-45.907357398689655,170.56279190130127</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-45.90739450183919,170.56188876356345</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-45.907601974092024,170.56103013054968</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-45.907775421566264,170.56017195656187</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-45.90808983021261,170.5593252395205</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-45.90838682200108,170.55843558533454</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-45.908508870185734,170.55753281393982</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-45.90844192056841,170.5565619408776</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-45.90823081722014,170.55564431644154</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-45.9072855618543,170.56368596698323</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-45.9072456665956,170.5627627129515</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-45.90730643859539,170.56186575934743</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-45.907417203350285,170.56098186594753</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-45.907613309472026,170.56013839057036</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-45.9079501274577,170.559311649907</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-45.908335563517234,170.55843344901365</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-45.90853081967487,170.55753324011167</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-45.90829489852877,170.5565912879192</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-45.908083469331075,170.55570370543376</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-45.90709122283557,170.5636351967087</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-45.907173736764626,170.56274392240994</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-45.907346266193635,170.56187616325587</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-45.90753653875891,170.5610130379264</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-45.907798542276055,170.56017674381675</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-45.9080750969897,170.55932380634073</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-45.90833133694048,170.55843327286098</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-45.90859630831416,170.55753451164074</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-45.90841198153603,170.55656791701628</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-45.90818620458901,170.55566229772785</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17398,6 +17398,128 @@
         </is>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>289.7604347826087</v>
+      </c>
+      <c r="C456" t="n">
+        <v>290.8271428571429</v>
+      </c>
+      <c r="D456" t="n">
+        <v>287.78</v>
+      </c>
+      <c r="E456" t="n">
+        <v>305.8766666666667</v>
+      </c>
+      <c r="F456" t="n">
+        <v>320.0766666666667</v>
+      </c>
+      <c r="G456" t="n">
+        <v>337.7271428571428</v>
+      </c>
+      <c r="H456" t="n">
+        <v>361.74</v>
+      </c>
+      <c r="I456" t="n">
+        <v>393.27</v>
+      </c>
+      <c r="J456" t="n">
+        <v>372.78</v>
+      </c>
+      <c r="K456" t="n">
+        <v>351.1471428571429</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>294.6726086956522</v>
+      </c>
+      <c r="C457" t="n">
+        <v>287.6671428571428</v>
+      </c>
+      <c r="D457" t="n">
+        <v>287.22</v>
+      </c>
+      <c r="E457" t="n">
+        <v>291.75</v>
+      </c>
+      <c r="F457" t="n">
+        <v>302.43</v>
+      </c>
+      <c r="G457" t="n">
+        <v>332.4271428571428</v>
+      </c>
+      <c r="H457" t="n">
+        <v>372.91</v>
+      </c>
+      <c r="I457" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J457" t="n">
+        <v>377.81</v>
+      </c>
+      <c r="K457" t="n">
+        <v>349.5071428571428</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>282.0621739130435</v>
+      </c>
+      <c r="C458" t="n">
+        <v>263.9228571428571</v>
+      </c>
+      <c r="D458" t="n">
+        <v>274.01</v>
+      </c>
+      <c r="E458" t="n">
+        <v>282.9266666666667</v>
+      </c>
+      <c r="F458" t="n">
+        <v>304.8866666666667</v>
+      </c>
+      <c r="G458" t="n">
+        <v>352.2228571428572</v>
+      </c>
+      <c r="H458" t="n">
+        <v>381.49</v>
+      </c>
+      <c r="I458" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17409,7 +17531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22657,6 +22779,36 @@
       </c>
       <c r="B524" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -22830,28 +22982,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.320501269500839</v>
+        <v>-0.3076763936412879</v>
       </c>
       <c r="J2" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02122630233984724</v>
+        <v>0.01982264257538546</v>
       </c>
       <c r="M2" t="n">
-        <v>13.4802206759321</v>
+        <v>13.44105998450997</v>
       </c>
       <c r="N2" t="n">
-        <v>270.2228657071232</v>
+        <v>268.7867213939035</v>
       </c>
       <c r="O2" t="n">
-        <v>16.43845691380804</v>
+        <v>16.3947162645135</v>
       </c>
       <c r="P2" t="n">
-        <v>288.3774584943525</v>
+        <v>288.2496046428344</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22908,28 +23060,28 @@
         <v>0.0384</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3438850745586895</v>
+        <v>-0.3371204264521579</v>
       </c>
       <c r="J3" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02702802497181733</v>
+        <v>0.02624671140609702</v>
       </c>
       <c r="M3" t="n">
-        <v>12.30819474393547</v>
+        <v>12.31150214095917</v>
       </c>
       <c r="N3" t="n">
-        <v>237.274692616298</v>
+        <v>236.6627087154347</v>
       </c>
       <c r="O3" t="n">
-        <v>15.40372333613851</v>
+        <v>15.38384570630617</v>
       </c>
       <c r="P3" t="n">
-        <v>285.1157573146734</v>
+        <v>285.0479282662745</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22986,28 +23138,28 @@
         <v>0.0465</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4391685759665165</v>
+        <v>-0.4329159673942923</v>
       </c>
       <c r="J4" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03604741099458431</v>
+        <v>0.0355324823546781</v>
       </c>
       <c r="M4" t="n">
-        <v>12.94033328187827</v>
+        <v>12.89205127412299</v>
       </c>
       <c r="N4" t="n">
-        <v>287.6057722864035</v>
+        <v>285.687568125701</v>
       </c>
       <c r="O4" t="n">
-        <v>16.95894372555093</v>
+        <v>16.90229475916513</v>
       </c>
       <c r="P4" t="n">
-        <v>290.1170811160088</v>
+        <v>290.0543675778482</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23064,28 +23216,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4032870108994328</v>
+        <v>-0.3954944830888634</v>
       </c>
       <c r="J5" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03158314501593418</v>
+        <v>0.03077187751821098</v>
       </c>
       <c r="M5" t="n">
-        <v>13.07176334104748</v>
+        <v>13.03623926317097</v>
       </c>
       <c r="N5" t="n">
-        <v>275.0090072937718</v>
+        <v>273.6489225942269</v>
       </c>
       <c r="O5" t="n">
-        <v>16.58339552967883</v>
+        <v>16.54233727724795</v>
       </c>
       <c r="P5" t="n">
-        <v>298.7926833339941</v>
+        <v>298.7139030135651</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23142,28 +23294,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2587778555144208</v>
+        <v>-0.2530105511250727</v>
       </c>
       <c r="J6" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K6" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01010227260532048</v>
+        <v>0.009800663581223223</v>
       </c>
       <c r="M6" t="n">
-        <v>14.92285479505713</v>
+        <v>14.84960198216827</v>
       </c>
       <c r="N6" t="n">
-        <v>364.8709395009456</v>
+        <v>362.4238422446186</v>
       </c>
       <c r="O6" t="n">
-        <v>19.10159520827895</v>
+        <v>19.03743265896478</v>
       </c>
       <c r="P6" t="n">
-        <v>312.0475876628728</v>
+        <v>311.9901207966669</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23220,28 +23372,28 @@
         <v>0.0421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06092588807345426</v>
+        <v>0.07286133181781247</v>
       </c>
       <c r="J7" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003460160374235688</v>
+        <v>0.0005014025548611967</v>
       </c>
       <c r="M7" t="n">
-        <v>19.62066677763332</v>
+        <v>19.52955187838062</v>
       </c>
       <c r="N7" t="n">
-        <v>606.3058472732624</v>
+        <v>602.4876982211329</v>
       </c>
       <c r="O7" t="n">
-        <v>24.62327856466849</v>
+        <v>24.54562482849302</v>
       </c>
       <c r="P7" t="n">
-        <v>331.0425384369882</v>
+        <v>330.9238554221553</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23298,28 +23450,28 @@
         <v>0.0476</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1438148305647283</v>
+        <v>0.1694778033353023</v>
       </c>
       <c r="J8" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K8" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001359376599991635</v>
+        <v>0.00191073320266244</v>
       </c>
       <c r="M8" t="n">
-        <v>23.68575615453507</v>
+        <v>23.62257659073599</v>
       </c>
       <c r="N8" t="n">
-        <v>866.9154154476065</v>
+        <v>862.4850842489199</v>
       </c>
       <c r="O8" t="n">
-        <v>29.44342737263457</v>
+        <v>29.36809636746856</v>
       </c>
       <c r="P8" t="n">
-        <v>351.4889013248941</v>
+        <v>351.2367243584109</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23376,28 +23528,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3512702593806779</v>
+        <v>0.3963383298498072</v>
       </c>
       <c r="J9" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K9" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006914670346924723</v>
+        <v>0.008864607888395493</v>
       </c>
       <c r="M9" t="n">
-        <v>25.39796583104954</v>
+        <v>25.44350964791714</v>
       </c>
       <c r="N9" t="n">
-        <v>1028.070255614481</v>
+        <v>1026.953413385274</v>
       </c>
       <c r="O9" t="n">
-        <v>32.06353467125047</v>
+        <v>32.0461138577718</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3531756433267</v>
+        <v>347.9160004170481</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23454,28 +23606,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3284158756443623</v>
+        <v>0.3826379961348368</v>
       </c>
       <c r="J10" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K10" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005119044892005431</v>
+        <v>0.006926874639420655</v>
       </c>
       <c r="M10" t="n">
-        <v>25.42765967762132</v>
+        <v>25.56498191392475</v>
       </c>
       <c r="N10" t="n">
-        <v>1172.347961453466</v>
+        <v>1179.850697115518</v>
       </c>
       <c r="O10" t="n">
-        <v>34.23956719138643</v>
+        <v>34.34895481838593</v>
       </c>
       <c r="P10" t="n">
-        <v>317.5893708664025</v>
+        <v>317.0440189268892</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23532,28 +23684,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4039152862916466</v>
+        <v>-0.3338716608306297</v>
       </c>
       <c r="J11" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K11" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004622418583187682</v>
+        <v>0.0031583049071644</v>
       </c>
       <c r="M11" t="n">
-        <v>33.30608249509903</v>
+        <v>33.38439495817308</v>
       </c>
       <c r="N11" t="n">
-        <v>1991.037880202628</v>
+        <v>2003.57067627067</v>
       </c>
       <c r="O11" t="n">
-        <v>44.62104750230129</v>
+        <v>44.76126312193021</v>
       </c>
       <c r="P11" t="n">
-        <v>296.9952472141809</v>
+        <v>296.2939066146163</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23591,7 +23743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47473,6 +47625,184 @@
         </is>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-45.90701277994694,170.563614703919</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-45.90714705862302,170.562736953175</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-45.90724492708075,170.56184969111584</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-45.907529930321175,170.56101131171224</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-45.90777916124462,170.56017273088014</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-45.90801483054222,170.55931794390577</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-45.90826164338724,170.55843036821759</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-45.90857642783444,170.55753412564087</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-45.9083995960433,170.55657038928587</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>-45.908045958090355,170.55571882439244</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-45.907056255432074,170.56362606165283</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-45.90711909082672,170.56272964704524</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-45.90723997075718,170.56184839641085</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-45.907404901034525,170.56097865242793</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-45.90762203538875,170.56014019730355</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-45.907967258516216,170.55931331633124</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-45.90836209203084,170.55843455465316</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-45.90858389425896,170.55753427060915</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>-45.90844441548774,170.55656144286573</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>-45.90803175528481,170.55572454884748</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-45.9069446460326,170.56359690433837</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-45.90690894038661,170.5626747488977</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-45.90712305462023,170.56181785530646</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-45.907326809354274,170.56095825393007</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-45.9076439095404,170.56014472642966</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-45.90814494195474,170.55933060054116</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-45.908439249537665,170.55843777038055</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-45.90835945173527,170.55752991282662</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L458"/>
+  <dimension ref="A1:L459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17512,9 +17512,47 @@
       <c r="I458" t="n">
         <v>369.15</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>332.95</v>
+      </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>294.63</v>
+      </c>
+      <c r="C459" t="n">
+        <v>295.4471428571428</v>
+      </c>
+      <c r="D459" t="n">
+        <v>285.54</v>
+      </c>
+      <c r="E459" t="n">
+        <v>266.2066666666667</v>
+      </c>
+      <c r="F459" t="n">
+        <v>267.6066666666667</v>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="K459" t="n">
+        <v>373.8371428571429</v>
+      </c>
+      <c r="L459" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17531,7 +17569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22809,6 +22847,16 @@
       </c>
       <c r="B527" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -22982,28 +23030,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3076763936412879</v>
+        <v>-0.3006275548295766</v>
       </c>
       <c r="J2" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01982264257538546</v>
+        <v>0.01899465314388471</v>
       </c>
       <c r="M2" t="n">
-        <v>13.44105998450997</v>
+        <v>13.44431274625035</v>
       </c>
       <c r="N2" t="n">
-        <v>268.7867213939035</v>
+        <v>268.6026421681839</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3947162645135</v>
+        <v>16.38910132277496</v>
       </c>
       <c r="P2" t="n">
-        <v>288.2496046428344</v>
+        <v>288.1789558902955</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23060,28 +23108,28 @@
         <v>0.0384</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3371204264521579</v>
+        <v>-0.3275551011896548</v>
       </c>
       <c r="J3" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K3" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02624671140609702</v>
+        <v>0.0248356274426933</v>
       </c>
       <c r="M3" t="n">
-        <v>12.31150214095917</v>
+        <v>12.3293858973348</v>
       </c>
       <c r="N3" t="n">
-        <v>236.6627087154347</v>
+        <v>237.0104390205396</v>
       </c>
       <c r="O3" t="n">
-        <v>15.38384570630617</v>
+        <v>15.3951433582328</v>
       </c>
       <c r="P3" t="n">
-        <v>285.0479282662745</v>
+        <v>284.95121070494</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23138,28 +23186,28 @@
         <v>0.0465</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4329159673942923</v>
+        <v>-0.4295851504061086</v>
       </c>
       <c r="J4" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0355324823546781</v>
+        <v>0.03516565246657455</v>
       </c>
       <c r="M4" t="n">
-        <v>12.89205127412299</v>
+        <v>12.87367372823575</v>
       </c>
       <c r="N4" t="n">
-        <v>285.687568125701</v>
+        <v>285.017928725201</v>
       </c>
       <c r="O4" t="n">
-        <v>16.90229475916513</v>
+        <v>16.88247401079596</v>
       </c>
       <c r="P4" t="n">
-        <v>290.0543675778482</v>
+        <v>290.0207378244237</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23216,28 +23264,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3954944830888634</v>
+        <v>-0.4069128334271182</v>
       </c>
       <c r="J5" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03077187751821098</v>
+        <v>0.03251978189749627</v>
       </c>
       <c r="M5" t="n">
-        <v>13.03623926317097</v>
+        <v>13.06020773516433</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6489225942269</v>
+        <v>274.2680535877275</v>
       </c>
       <c r="O5" t="n">
-        <v>16.54233727724795</v>
+        <v>16.56104023265832</v>
       </c>
       <c r="P5" t="n">
-        <v>298.7139030135651</v>
+        <v>298.8301433849826</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23294,28 +23342,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2530105511250727</v>
+        <v>-0.2725350659090618</v>
       </c>
       <c r="J6" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009800663581223223</v>
+        <v>0.01129120713955734</v>
       </c>
       <c r="M6" t="n">
-        <v>14.84960198216827</v>
+        <v>14.9081089292966</v>
       </c>
       <c r="N6" t="n">
-        <v>362.4238422446186</v>
+        <v>365.3900826478974</v>
       </c>
       <c r="O6" t="n">
-        <v>19.03743265896478</v>
+        <v>19.11517937786348</v>
       </c>
       <c r="P6" t="n">
-        <v>311.9901207966669</v>
+        <v>312.1858760914766</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23375,7 +23423,7 @@
         <v>0.07286133181781247</v>
       </c>
       <c r="J7" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K7" t="n">
         <v>370</v>
@@ -23453,7 +23501,7 @@
         <v>0.1694778033353023</v>
       </c>
       <c r="J8" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K8" t="n">
         <v>355</v>
@@ -23531,7 +23579,7 @@
         <v>0.3963383298498072</v>
       </c>
       <c r="J9" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K9" t="n">
         <v>332</v>
@@ -23606,28 +23654,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3826379961348368</v>
+        <v>0.399412232043508</v>
       </c>
       <c r="J10" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K10" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006926874639420655</v>
+        <v>0.007613855345833032</v>
       </c>
       <c r="M10" t="n">
-        <v>25.56498191392475</v>
+        <v>25.49904099588052</v>
       </c>
       <c r="N10" t="n">
-        <v>1179.850697115518</v>
+        <v>1174.584898408545</v>
       </c>
       <c r="O10" t="n">
-        <v>34.34895481838593</v>
+        <v>34.27221758813609</v>
       </c>
       <c r="P10" t="n">
-        <v>317.0440189268892</v>
+        <v>316.8744662278165</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23684,28 +23732,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3338716608306297</v>
+        <v>-0.2864522215904948</v>
       </c>
       <c r="J11" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K11" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0031583049071644</v>
+        <v>0.002313199252997666</v>
       </c>
       <c r="M11" t="n">
-        <v>33.38439495817308</v>
+        <v>33.48030384283733</v>
       </c>
       <c r="N11" t="n">
-        <v>2003.57067627067</v>
+        <v>2020.305964604484</v>
       </c>
       <c r="O11" t="n">
-        <v>44.76126312193021</v>
+        <v>44.94781379115657</v>
       </c>
       <c r="P11" t="n">
-        <v>296.2939066146163</v>
+        <v>295.8164171809926</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23743,7 +23791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L458"/>
+  <dimension ref="A1:L459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45542,7 +45590,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>-45.908256361098616,170.55752791121517</t>
+          <t>-45.90825636109862,170.55752791121517</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -47795,9 +47843,63 @@
           <t>-45.90835945173527,170.55752991282662</t>
         </is>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-45.908044693716135,170.55664123085543</t>
+        </is>
+      </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-45.90705587832131,170.5636259631346</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-45.90718794824843,170.56274763493386</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-45.90722510178637,170.5618445122971</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-45.90717882752832,170.56091959942256</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-45.90731196852734,170.56007599713382</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-45.90821087319918,170.5566080601214</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-45.90824245906253,170.5556396241486</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L459"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17543,9 +17543,15 @@
       <c r="F459" t="n">
         <v>267.6066666666667</v>
       </c>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr"/>
-      <c r="I459" t="inlineStr"/>
+      <c r="G459" t="n">
+        <v>284.5471428571428</v>
+      </c>
+      <c r="H459" t="n">
+        <v>311.14</v>
+      </c>
+      <c r="I459" t="n">
+        <v>327.48</v>
+      </c>
       <c r="J459" t="n">
         <v>351.6</v>
       </c>
@@ -17555,6 +17561,210 @@
       <c r="L459" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>278.1930434782608</v>
+      </c>
+      <c r="C460" t="n">
+        <v>273.9657142857143</v>
+      </c>
+      <c r="D460" t="n">
+        <v>263.66</v>
+      </c>
+      <c r="E460" t="n">
+        <v>254.3833333333333</v>
+      </c>
+      <c r="F460" t="n">
+        <v>258.9333333333333</v>
+      </c>
+      <c r="G460" t="n">
+        <v>273.0957142857143</v>
+      </c>
+      <c r="H460" t="n">
+        <v>307.83</v>
+      </c>
+      <c r="I460" t="n">
+        <v>317.41</v>
+      </c>
+      <c r="J460" t="n">
+        <v>302</v>
+      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>286.02</v>
+      </c>
+      <c r="C461" t="n">
+        <v>277.8185714285714</v>
+      </c>
+      <c r="D461" t="n">
+        <v>277.98</v>
+      </c>
+      <c r="E461" t="n">
+        <v>270.2733333333333</v>
+      </c>
+      <c r="F461" t="n">
+        <v>262.9133333333333</v>
+      </c>
+      <c r="G461" t="n">
+        <v>272.9385714285714</v>
+      </c>
+      <c r="H461" t="n">
+        <v>298.17</v>
+      </c>
+      <c r="I461" t="n">
+        <v>330.51</v>
+      </c>
+      <c r="J461" t="n">
+        <v>326.63</v>
+      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>265.7543478260869</v>
+      </c>
+      <c r="C462" t="n">
+        <v>278.4357142857143</v>
+      </c>
+      <c r="D462" t="n">
+        <v>279.27</v>
+      </c>
+      <c r="E462" t="n">
+        <v>263.23</v>
+      </c>
+      <c r="F462" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="G462" t="n">
+        <v>275.4157142857143</v>
+      </c>
+      <c r="H462" t="n">
+        <v>315.81</v>
+      </c>
+      <c r="I462" t="n">
+        <v>333.74</v>
+      </c>
+      <c r="J462" t="n">
+        <v>333.26</v>
+      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>294.7556521739131</v>
+      </c>
+      <c r="C463" t="n">
+        <v>290.0257142857143</v>
+      </c>
+      <c r="D463" t="n">
+        <v>295.33</v>
+      </c>
+      <c r="E463" t="n">
+        <v>292.6666666666667</v>
+      </c>
+      <c r="F463" t="n">
+        <v>296.9366666666667</v>
+      </c>
+      <c r="G463" t="n">
+        <v>310.0557142857143</v>
+      </c>
+      <c r="H463" t="n">
+        <v>322.53</v>
+      </c>
+      <c r="I463" t="n">
+        <v>353.99</v>
+      </c>
+      <c r="J463" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="K463" t="n">
+        <v>364.4257142857143</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>288.7047826086956</v>
+      </c>
+      <c r="C464" t="n">
+        <v>274.6271428571428</v>
+      </c>
+      <c r="D464" t="n">
+        <v>269.92</v>
+      </c>
+      <c r="E464" t="n">
+        <v>272.48</v>
+      </c>
+      <c r="F464" t="n">
+        <v>275.29</v>
+      </c>
+      <c r="G464" t="n">
+        <v>280.8171428571428</v>
+      </c>
+      <c r="H464" t="n">
+        <v>305.12</v>
+      </c>
+      <c r="I464" t="n">
+        <v>324.59</v>
+      </c>
+      <c r="J464" t="n">
+        <v>346.95</v>
+      </c>
+      <c r="K464" t="n">
+        <v>384.7271428571429</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17569,7 +17779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22857,6 +23067,56 @@
       </c>
       <c r="B528" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -23030,28 +23290,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3006275548295766</v>
+        <v>-0.2951756508113521</v>
       </c>
       <c r="J2" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K2" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01899465314388471</v>
+        <v>0.01866693230777083</v>
       </c>
       <c r="M2" t="n">
-        <v>13.44431274625035</v>
+        <v>13.38336472446014</v>
       </c>
       <c r="N2" t="n">
-        <v>268.6026421681839</v>
+        <v>266.3309482493569</v>
       </c>
       <c r="O2" t="n">
-        <v>16.38910132277496</v>
+        <v>16.31964914602507</v>
       </c>
       <c r="P2" t="n">
-        <v>288.1789558902955</v>
+        <v>288.1239972104344</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23108,28 +23368,28 @@
         <v>0.0384</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3275551011896548</v>
+        <v>-0.3215158035840645</v>
       </c>
       <c r="J3" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K3" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0248356274426933</v>
+        <v>0.02448592694535656</v>
       </c>
       <c r="M3" t="n">
-        <v>12.3293858973348</v>
+        <v>12.21824700448562</v>
       </c>
       <c r="N3" t="n">
-        <v>237.0104390205396</v>
+        <v>234.3053464977425</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3951433582328</v>
+        <v>15.30703584949557</v>
       </c>
       <c r="P3" t="n">
-        <v>284.95121070494</v>
+        <v>284.8899384424744</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23186,28 +23446,28 @@
         <v>0.0465</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4295851504061086</v>
+        <v>-0.4336399157192729</v>
       </c>
       <c r="J4" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03516565246657455</v>
+        <v>0.03648385899778372</v>
       </c>
       <c r="M4" t="n">
-        <v>12.87367372823575</v>
+        <v>12.81360593527184</v>
       </c>
       <c r="N4" t="n">
-        <v>285.017928725201</v>
+        <v>282.7194165310472</v>
       </c>
       <c r="O4" t="n">
-        <v>16.88247401079596</v>
+        <v>16.81426229517808</v>
       </c>
       <c r="P4" t="n">
-        <v>290.0207378244237</v>
+        <v>290.0616958801991</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23264,28 +23524,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4069128334271182</v>
+        <v>-0.450655143715223</v>
       </c>
       <c r="J5" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K5" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03251978189749627</v>
+        <v>0.03967065093367428</v>
       </c>
       <c r="M5" t="n">
-        <v>13.06020773516433</v>
+        <v>13.1481421697743</v>
       </c>
       <c r="N5" t="n">
-        <v>274.2680535877275</v>
+        <v>276.8897017477679</v>
       </c>
       <c r="O5" t="n">
-        <v>16.56104023265832</v>
+        <v>16.64000305732447</v>
       </c>
       <c r="P5" t="n">
-        <v>298.8301433849826</v>
+        <v>299.2764138373906</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23342,28 +23602,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2725350659090618</v>
+        <v>-0.3570985657344218</v>
       </c>
       <c r="J6" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01129120713955734</v>
+        <v>0.01880655315169322</v>
       </c>
       <c r="M6" t="n">
-        <v>14.9081089292966</v>
+        <v>15.1489054242289</v>
       </c>
       <c r="N6" t="n">
-        <v>365.3900826478974</v>
+        <v>378.4014932317228</v>
       </c>
       <c r="O6" t="n">
-        <v>19.11517937786348</v>
+        <v>19.45254464669656</v>
       </c>
       <c r="P6" t="n">
-        <v>312.1858760914766</v>
+        <v>313.0357130951181</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23420,28 +23680,28 @@
         <v>0.0421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07286133181781247</v>
+        <v>-0.06780775652565837</v>
       </c>
       <c r="J7" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K7" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005014025548611967</v>
+        <v>0.0004185435439924001</v>
       </c>
       <c r="M7" t="n">
-        <v>19.52955187838062</v>
+        <v>20.001385832782</v>
       </c>
       <c r="N7" t="n">
-        <v>602.4876982211329</v>
+        <v>633.6294022108543</v>
       </c>
       <c r="O7" t="n">
-        <v>24.54562482849302</v>
+        <v>25.17199638906009</v>
       </c>
       <c r="P7" t="n">
-        <v>330.9238554221553</v>
+        <v>332.3300062986046</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23498,28 +23758,28 @@
         <v>0.0476</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1694778033353023</v>
+        <v>0.03597692141577048</v>
       </c>
       <c r="J8" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K8" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00191073320266244</v>
+        <v>8.558055916019214e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>23.62257659073599</v>
+        <v>24.00090702433537</v>
       </c>
       <c r="N8" t="n">
-        <v>862.4850842489199</v>
+        <v>881.9707458853592</v>
       </c>
       <c r="O8" t="n">
-        <v>29.36809636746856</v>
+        <v>29.69799228711192</v>
       </c>
       <c r="P8" t="n">
-        <v>351.2367243584109</v>
+        <v>352.5564159459144</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23576,28 +23836,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3963383298498072</v>
+        <v>0.313440201596644</v>
       </c>
       <c r="J9" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K9" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008864607888395493</v>
+        <v>0.005667130674820053</v>
       </c>
       <c r="M9" t="n">
-        <v>25.44350964791714</v>
+        <v>25.41057282347384</v>
       </c>
       <c r="N9" t="n">
-        <v>1026.953413385274</v>
+        <v>1023.195036427141</v>
       </c>
       <c r="O9" t="n">
-        <v>32.0461138577718</v>
+        <v>31.98741997140659</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9160004170481</v>
+        <v>348.725940194346</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23654,28 +23914,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.399412232043508</v>
+        <v>0.4219527880404821</v>
       </c>
       <c r="J10" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K10" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007613855345833032</v>
+        <v>0.008656831148098232</v>
       </c>
       <c r="M10" t="n">
-        <v>25.49904099588052</v>
+        <v>25.3929393570172</v>
       </c>
       <c r="N10" t="n">
-        <v>1174.584898408545</v>
+        <v>1165.510644604412</v>
       </c>
       <c r="O10" t="n">
-        <v>34.27221758813609</v>
+        <v>34.13957592888951</v>
       </c>
       <c r="P10" t="n">
-        <v>316.8744662278165</v>
+        <v>316.6453205880295</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23732,28 +23992,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2864522215904948</v>
+        <v>-0.1925295853789041</v>
       </c>
       <c r="J11" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K11" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002313199252997666</v>
+        <v>0.001034305067489361</v>
       </c>
       <c r="M11" t="n">
-        <v>33.48030384283733</v>
+        <v>33.67571451724553</v>
       </c>
       <c r="N11" t="n">
-        <v>2020.305964604484</v>
+        <v>2053.727258643595</v>
       </c>
       <c r="O11" t="n">
-        <v>44.94781379115657</v>
+        <v>45.31806768435295</v>
       </c>
       <c r="P11" t="n">
-        <v>295.8164171809926</v>
+        <v>294.8667034970422</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23791,7 +24051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L459"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47886,9 +48146,21 @@
           <t>-45.90731196852734,170.56007599713382</t>
         </is>
       </c>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr"/>
-      <c r="I459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-45.90753749461077,170.55927151128034</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-45.90780661191266,170.5584114037977</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-45.907984601219034,170.55752263471368</t>
+        </is>
+      </c>
       <c r="J459" t="inlineStr">
         <is>
           <t>-45.90821087319918,170.5566080601214</t>
@@ -47902,6 +48174,304 @@
       <c r="L459" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-45.906910402063225,170.5635879583201</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-45.906997825390214,170.56269796851146</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-45.90703145113127,170.56179392651492</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-45.907074184072506,170.56089226549855</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-45.90723474118614,170.56006000710875</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-45.9074347082513,170.55926151286891</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-45.907776846018706,170.55841016324527</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-45.90789401459008,170.55752087587913</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-45.90776891592835,170.55669627778502</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-45.90697967500741,170.56360605544498</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-45.90703192536836,170.56270687653793</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-45.90715819141617,170.5618270338091</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-45.90721481991935,170.56092900101976</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-45.90727017909779,170.5600673445711</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-45.90743329775983,170.5592613756654</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-45.907689976369774,170.55840654278492</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-45.90801185816874,170.5575231639359</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-45.907988379806795,170.55665247150506</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-45.90680031264198,170.56355919823218</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-45.90703738743377,170.56270830340853</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-45.90716960866206,170.56183001624677</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-45.9071524822777,170.56091271776882</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-45.907259375580395,170.56006510768887</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-45.90745553223446,170.55926353849284</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-45.907848607901784,170.55841315406468</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-45.908040914256894,170.5575237280903</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-45.90804745594898,170.5566406794938</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-45.90705699041329,170.5636262536628</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-45.907139965524635,170.56273510021828</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-45.907311748941865,170.5618671465344</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-45.907413014072496,170.56098077165535</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-45.90757312276678,170.56013006977147</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-45.90776645583611,170.5592937832956</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-45.90790903896063,170.55841567265244</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-45.908223077035835,170.55752726497056</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-45.9083730429722,170.5565756895432</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-45.90816095378865,170.55567247514247</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-45.90700343683493,170.56361226308405</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-45.90700367940949,170.5626994977715</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-45.90708685575415,170.56180839937917</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-45.90723435021648,170.56093410254687</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-45.90738038090877,170.56009016204348</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-45.90750401467279,170.55926825455907</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-45.90775247575499,170.5584091475669</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-45.90795860366626,170.5575221299439</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-45.90816943971045,170.55661633059293</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-45.908336769111195,170.55560161201214</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17768,6 +17768,170 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>286.3291304347826</v>
+      </c>
+      <c r="C465" t="n">
+        <v>264.0985714285715</v>
+      </c>
+      <c r="D465" t="n">
+        <v>268.39</v>
+      </c>
+      <c r="E465" t="n">
+        <v>264.69</v>
+      </c>
+      <c r="F465" t="n">
+        <v>290.09</v>
+      </c>
+      <c r="G465" t="n">
+        <v>338.4585714285714</v>
+      </c>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>373.65</v>
+      </c>
+      <c r="K465" t="n">
+        <v>358.1085714285715</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>266.7047826086956</v>
+      </c>
+      <c r="C466" t="n">
+        <v>264.7514285714286</v>
+      </c>
+      <c r="D466" t="n">
+        <v>270.84</v>
+      </c>
+      <c r="E466" t="n">
+        <v>284.49</v>
+      </c>
+      <c r="F466" t="n">
+        <v>295.72</v>
+      </c>
+      <c r="G466" t="n">
+        <v>301.7214285714285</v>
+      </c>
+      <c r="H466" t="n">
+        <v>324.3</v>
+      </c>
+      <c r="I466" t="n">
+        <v>341.27</v>
+      </c>
+      <c r="J466" t="n">
+        <v>335.53</v>
+      </c>
+      <c r="K466" t="n">
+        <v>341.2714285714285</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>264.7652173913044</v>
+      </c>
+      <c r="C467" t="n">
+        <v>248.0271428571429</v>
+      </c>
+      <c r="D467" t="n">
+        <v>250.83</v>
+      </c>
+      <c r="E467" t="n">
+        <v>263.3433333333333</v>
+      </c>
+      <c r="F467" t="n">
+        <v>294.6033333333333</v>
+      </c>
+      <c r="G467" t="n">
+        <v>338.8271428571429</v>
+      </c>
+      <c r="H467" t="n">
+        <v>361.12</v>
+      </c>
+      <c r="I467" t="n">
+        <v>358.08</v>
+      </c>
+      <c r="J467" t="n">
+        <v>327.71</v>
+      </c>
+      <c r="K467" t="n">
+        <v>317.2271428571428</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>263.8204347826087</v>
+      </c>
+      <c r="C468" t="n">
+        <v>256.8342857142857</v>
+      </c>
+      <c r="D468" t="n">
+        <v>265.79</v>
+      </c>
+      <c r="E468" t="n">
+        <v>280.4333333333333</v>
+      </c>
+      <c r="F468" t="n">
+        <v>312.0933333333333</v>
+      </c>
+      <c r="G468" t="n">
+        <v>341.5742857142857</v>
+      </c>
+      <c r="H468" t="n">
+        <v>349.78</v>
+      </c>
+      <c r="I468" t="n">
+        <v>346.06</v>
+      </c>
+      <c r="J468" t="n">
+        <v>328.82</v>
+      </c>
+      <c r="K468" t="n">
+        <v>319.2442857142857</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17779,7 +17943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23117,6 +23281,46 @@
       </c>
       <c r="B533" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -23290,28 +23494,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2951756508113521</v>
+        <v>-0.3140869221282536</v>
       </c>
       <c r="J2" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01866693230777083</v>
+        <v>0.02132531287752459</v>
       </c>
       <c r="M2" t="n">
-        <v>13.38336472446014</v>
+        <v>13.37592662449411</v>
       </c>
       <c r="N2" t="n">
-        <v>266.3309482493569</v>
+        <v>265.4172850642347</v>
       </c>
       <c r="O2" t="n">
-        <v>16.31964914602507</v>
+        <v>16.29163236340161</v>
       </c>
       <c r="P2" t="n">
-        <v>288.1239972104344</v>
+        <v>288.3162403888578</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23368,28 +23572,28 @@
         <v>0.0384</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3215158035840645</v>
+        <v>-0.3561267013749269</v>
       </c>
       <c r="J3" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K3" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02448592694535656</v>
+        <v>0.02996027372447385</v>
       </c>
       <c r="M3" t="n">
-        <v>12.21824700448562</v>
+        <v>12.28020661656499</v>
       </c>
       <c r="N3" t="n">
-        <v>234.3053464977425</v>
+        <v>235.7014483228387</v>
       </c>
       <c r="O3" t="n">
-        <v>15.30703584949557</v>
+        <v>15.35257139123081</v>
       </c>
       <c r="P3" t="n">
-        <v>284.8899384424744</v>
+        <v>285.2443958557475</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23446,28 +23650,28 @@
         <v>0.0465</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4336399157192729</v>
+        <v>-0.4619460697905926</v>
       </c>
       <c r="J4" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K4" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03648385899778372</v>
+        <v>0.04156794919672657</v>
       </c>
       <c r="M4" t="n">
-        <v>12.81360593527184</v>
+        <v>12.839966801348</v>
       </c>
       <c r="N4" t="n">
-        <v>282.7194165310472</v>
+        <v>282.618067330779</v>
       </c>
       <c r="O4" t="n">
-        <v>16.81426229517808</v>
+        <v>16.81124823833076</v>
       </c>
       <c r="P4" t="n">
-        <v>290.0616958801991</v>
+        <v>290.3511413176279</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23524,28 +23728,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.450655143715223</v>
+        <v>-0.4785672984164235</v>
       </c>
       <c r="J5" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03967065093367428</v>
+        <v>0.04488402424975302</v>
       </c>
       <c r="M5" t="n">
-        <v>13.1481421697743</v>
+        <v>13.16423874740737</v>
       </c>
       <c r="N5" t="n">
-        <v>276.8897017477679</v>
+        <v>276.9874706415422</v>
       </c>
       <c r="O5" t="n">
-        <v>16.64000305732447</v>
+        <v>16.64294056474222</v>
       </c>
       <c r="P5" t="n">
-        <v>299.2764138373906</v>
+        <v>299.5640038189418</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23602,28 +23806,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3570985657344218</v>
+        <v>-0.3680849824959565</v>
       </c>
       <c r="J6" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K6" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01880655315169322</v>
+        <v>0.02030869151861703</v>
       </c>
       <c r="M6" t="n">
-        <v>15.1489054242289</v>
+        <v>15.09107411329899</v>
       </c>
       <c r="N6" t="n">
-        <v>378.4014932317228</v>
+        <v>375.3601898251148</v>
       </c>
       <c r="O6" t="n">
-        <v>19.45254464669656</v>
+        <v>19.37421456021159</v>
       </c>
       <c r="P6" t="n">
-        <v>313.0357130951181</v>
+        <v>313.1470144765964</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23680,28 +23884,28 @@
         <v>0.0421</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06780775652565837</v>
+        <v>-0.06856264138788794</v>
       </c>
       <c r="J7" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K7" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004185435439924001</v>
+        <v>0.000434316477531782</v>
       </c>
       <c r="M7" t="n">
-        <v>20.001385832782</v>
+        <v>19.93826043327685</v>
       </c>
       <c r="N7" t="n">
-        <v>633.6294022108543</v>
+        <v>629.8116611548421</v>
       </c>
       <c r="O7" t="n">
-        <v>25.17199638906009</v>
+        <v>25.09604871598001</v>
       </c>
       <c r="P7" t="n">
-        <v>332.3300062986046</v>
+        <v>332.3374999632861</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23758,28 +23962,28 @@
         <v>0.0476</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03597692141577048</v>
+        <v>0.02370174430673567</v>
       </c>
       <c r="J8" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K8" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L8" t="n">
-        <v>8.558055916019214e-05</v>
+        <v>3.761480721320432e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>24.00090702433537</v>
+        <v>23.91738883829527</v>
       </c>
       <c r="N8" t="n">
-        <v>881.9707458853592</v>
+        <v>877.2269993919798</v>
       </c>
       <c r="O8" t="n">
-        <v>29.69799228711192</v>
+        <v>29.61801815435969</v>
       </c>
       <c r="P8" t="n">
-        <v>352.5564159459144</v>
+        <v>352.6789298262772</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23836,28 +24040,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>0.313440201596644</v>
+        <v>0.3005333428191823</v>
       </c>
       <c r="J9" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K9" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005667130674820053</v>
+        <v>0.005291971483163405</v>
       </c>
       <c r="M9" t="n">
-        <v>25.41057282347384</v>
+        <v>25.26122473634894</v>
       </c>
       <c r="N9" t="n">
-        <v>1023.195036427141</v>
+        <v>1015.241091124039</v>
       </c>
       <c r="O9" t="n">
-        <v>31.98741997140659</v>
+        <v>31.86284813264562</v>
       </c>
       <c r="P9" t="n">
-        <v>348.725940194346</v>
+        <v>348.8534439608288</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23914,28 +24118,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4219527880404821</v>
+        <v>0.4504741848527323</v>
       </c>
       <c r="J10" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K10" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008656831148098232</v>
+        <v>0.01000953389217851</v>
       </c>
       <c r="M10" t="n">
-        <v>25.3929393570172</v>
+        <v>25.24646847567506</v>
       </c>
       <c r="N10" t="n">
-        <v>1165.510644604412</v>
+        <v>1158.058792389194</v>
       </c>
       <c r="O10" t="n">
-        <v>34.13957592888951</v>
+        <v>34.03026289039204</v>
       </c>
       <c r="P10" t="n">
-        <v>316.6453205880295</v>
+        <v>316.3536778116351</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23992,28 +24196,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1925295853789041</v>
+        <v>-0.09828814720566267</v>
       </c>
       <c r="J11" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K11" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001034305067489361</v>
+        <v>0.0002722327418984705</v>
       </c>
       <c r="M11" t="n">
-        <v>33.67571451724553</v>
+        <v>33.66129653610675</v>
       </c>
       <c r="N11" t="n">
-        <v>2053.727258643595</v>
+        <v>2055.066220650094</v>
       </c>
       <c r="O11" t="n">
-        <v>45.31806768435295</v>
+        <v>45.3328382152507</v>
       </c>
       <c r="P11" t="n">
-        <v>294.8667034970422</v>
+        <v>293.9061022417562</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24051,7 +24255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48475,6 +48679,246 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-45.906982410984654,170.56360677020282</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-45.90691049555811,170.5626751551578</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-45.90707331436884,170.56180486207924</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-45.9071654041364,170.56091609309206</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-45.907512160067924,170.56011744725092</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-45.90802139573823,170.5593185825365</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-45.908407348114295,170.55656884189423</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-45.90810624577907,170.5556945253432</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-45.90680872452223,170.56356139577304</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-45.906916273715666,170.56267666459584</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-45.90709499828643,170.56181052638385</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-45.907340645772365,170.56096186816703</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-45.90756228957063,170.56012782672192</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-45.907691648501284,170.55928650645748</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-45.907924956069806,170.55841633603094</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-45.908108651824165,170.55752504328595</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-45.908067682621564,170.556636642102</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-45.907960431956774,170.55575329573787</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-45.9067915582835,170.56355691122215</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-45.90676825425575,170.5626379973106</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-45.906917898200625,170.56176426416232</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-45.90715348534436,170.56091297978017</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-45.907552346774146,170.56012576803334</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-45.90802470398153,170.55931890434655</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-45.90825606790296,170.55843013584627</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-45.90825986941876,170.55752797933286</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-45.907998003069935,170.55665055063633</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-45.90775220242537,170.55583722225424</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-45.90678319642809,170.56355472675116</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-45.90684620249087,170.56265835978914</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-45.907050302864164,170.56179885098493</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-45.9073047418898,170.56095248964934</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-45.90770807767482,170.560158012704</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-45.90804936193444,170.55932130295506</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-45.90815409049595,170.5584258857042</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-45.90815174119263,170.55752587991094</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-45.90800789364587,170.55664857640937</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-45.90776967139043,170.55583018144765</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L468"/>
+  <dimension ref="A1:L469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17932,6 +17932,44 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>269.8282608695652</v>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="n">
+        <v>313.67</v>
+      </c>
+      <c r="F469" t="n">
+        <v>313.67</v>
+      </c>
+      <c r="G469" t="n">
+        <v>325.5957142857143</v>
+      </c>
+      <c r="H469" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="I469" t="n">
+        <v>334.14</v>
+      </c>
+      <c r="J469" t="n">
+        <v>315.6</v>
+      </c>
+      <c r="K469" t="n">
+        <v>296.9857142857143</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17943,7 +17981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23321,6 +23359,16 @@
       </c>
       <c r="B537" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -24255,7 +24303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L468"/>
+  <dimension ref="A1:L469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48919,6 +48967,60 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-45.90683636905427,170.56356861770482</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-45.90759890588889,170.56102932909133</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-45.90772211630901,170.56016091946427</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-45.90790594061042,170.55930735163383</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-45.9080499548354,170.55842154562012</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-45.908044512534055,170.5575237979546</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-45.90789009777337,170.5566720892244</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-45.90757690652551,170.55590787439772</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -23542,28 +23542,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3140869221282536</v>
+        <v>-0.3189313062089</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02132531287752459</v>
+        <v>0.02205328812375029</v>
       </c>
       <c r="M2" t="n">
-        <v>13.37592662449411</v>
+        <v>13.36681953306921</v>
       </c>
       <c r="N2" t="n">
-        <v>265.4172850642347</v>
+        <v>264.9775697783477</v>
       </c>
       <c r="O2" t="n">
-        <v>16.29163236340161</v>
+        <v>16.27813164273921</v>
       </c>
       <c r="P2" t="n">
-        <v>288.3162403888578</v>
+        <v>288.3657005530982</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23623,7 +23623,7 @@
         <v>-0.3561267013749269</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
         <v>369</v>
@@ -23701,7 +23701,7 @@
         <v>-0.4619460697905926</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K4" t="n">
         <v>370</v>
@@ -23776,28 +23776,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4785672984164235</v>
+        <v>-0.4655592658849495</v>
       </c>
       <c r="J5" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04488402424975302</v>
+        <v>0.04250023984347795</v>
       </c>
       <c r="M5" t="n">
-        <v>13.16423874740737</v>
+        <v>13.1983065393811</v>
       </c>
       <c r="N5" t="n">
-        <v>276.9874706415422</v>
+        <v>278.1535780399554</v>
       </c>
       <c r="O5" t="n">
-        <v>16.64294056474222</v>
+        <v>16.67793686401155</v>
       </c>
       <c r="P5" t="n">
-        <v>299.5640038189418</v>
+        <v>299.4292520309505</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23854,28 +23854,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3680849824959565</v>
+        <v>-0.3631011806273592</v>
       </c>
       <c r="J6" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02030869151861703</v>
+        <v>0.01985850427624958</v>
       </c>
       <c r="M6" t="n">
-        <v>15.09107411329899</v>
+        <v>15.07687620088627</v>
       </c>
       <c r="N6" t="n">
-        <v>375.3601898251148</v>
+        <v>374.6153822015078</v>
       </c>
       <c r="O6" t="n">
-        <v>19.37421456021159</v>
+        <v>19.35498339450354</v>
       </c>
       <c r="P6" t="n">
-        <v>313.1470144765964</v>
+        <v>313.0961836917893</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23932,28 +23932,28 @@
         <v>0.0421</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06856264138788794</v>
+        <v>-0.07086175667838403</v>
       </c>
       <c r="J7" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000434316477531782</v>
+        <v>0.0004661115204411814</v>
       </c>
       <c r="M7" t="n">
-        <v>19.93826043327685</v>
+        <v>19.89888099533657</v>
       </c>
       <c r="N7" t="n">
-        <v>629.8116611548421</v>
+        <v>628.2224571114755</v>
       </c>
       <c r="O7" t="n">
-        <v>25.09604871598001</v>
+        <v>25.06436628186469</v>
       </c>
       <c r="P7" t="n">
-        <v>332.3374999632861</v>
+        <v>332.3608416075692</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24010,28 +24010,28 @@
         <v>0.0476</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02370174430673567</v>
+        <v>0.01635302288776052</v>
       </c>
       <c r="J8" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K8" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>3.761480721320432e-05</v>
+        <v>1.79853207381564e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>23.91738883829527</v>
+        <v>23.89463942383313</v>
       </c>
       <c r="N8" t="n">
-        <v>877.2269993919798</v>
+        <v>875.4432824287112</v>
       </c>
       <c r="O8" t="n">
-        <v>29.61801815435969</v>
+        <v>29.58789080736765</v>
       </c>
       <c r="P8" t="n">
-        <v>352.6789298262772</v>
+        <v>352.752698563233</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24088,28 +24088,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3005333428191823</v>
+        <v>0.2889992324773505</v>
       </c>
       <c r="J9" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005291971483163405</v>
+        <v>0.004914695147228088</v>
       </c>
       <c r="M9" t="n">
-        <v>25.26122473634894</v>
+        <v>25.24742145996461</v>
       </c>
       <c r="N9" t="n">
-        <v>1015.241091124039</v>
+        <v>1013.749124799963</v>
       </c>
       <c r="O9" t="n">
-        <v>31.86284813264562</v>
+        <v>31.83942720590248</v>
       </c>
       <c r="P9" t="n">
-        <v>348.8534439608288</v>
+        <v>348.9679472463297</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24166,28 +24166,28 @@
         <v>0.0317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4504741848527323</v>
+        <v>0.4439762533328092</v>
       </c>
       <c r="J10" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K10" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01000953389217851</v>
+        <v>0.009772718607258146</v>
       </c>
       <c r="M10" t="n">
-        <v>25.24646847567506</v>
+        <v>25.21001938276658</v>
       </c>
       <c r="N10" t="n">
-        <v>1158.058792389194</v>
+        <v>1155.083977455319</v>
       </c>
       <c r="O10" t="n">
-        <v>34.03026289039204</v>
+        <v>33.98652641055451</v>
       </c>
       <c r="P10" t="n">
-        <v>316.3536778116351</v>
+        <v>316.4205796047802</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24244,28 +24244,28 @@
         <v>0.0495</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09828814720566267</v>
+        <v>-0.09526608701403767</v>
       </c>
       <c r="J11" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K11" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002722327418984705</v>
+        <v>0.0002571435914203724</v>
       </c>
       <c r="M11" t="n">
-        <v>33.66129653610675</v>
+        <v>33.57116048630539</v>
       </c>
       <c r="N11" t="n">
-        <v>2055.066220650094</v>
+        <v>2048.878325860438</v>
       </c>
       <c r="O11" t="n">
-        <v>45.3328382152507</v>
+        <v>45.26453717713723</v>
       </c>
       <c r="P11" t="n">
-        <v>293.9061022417562</v>
+        <v>293.8751204008951</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0511/nzd0511.xlsx
+++ b/data/nzd0511/nzd0511.xlsx
@@ -23533,13 +23533,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.083</v>
+        <v>0.0493</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1826</v>
+        <v>0.0578</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3189481540466967</v>
@@ -23611,13 +23611,13 @@
         <v>0.1111987768969208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0288</v>
+        <v>0.0422</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0384</v>
+        <v>0.0464</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3561502441528847</v>
@@ -23689,13 +23689,13 @@
         <v>0.2223975537940485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.038</v>
+        <v>0.0437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0465</v>
+        <v>0.0497</v>
       </c>
       <c r="I4" t="n">
         <v>-0.4619460697905926</v>
@@ -23767,13 +23767,13 @@
         <v>0.3335963306909693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0288</v>
+        <v>0.0391</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0359</v>
+        <v>0.0428</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4655985541432364</v>
@@ -23845,13 +23845,13 @@
         <v>0.4447951075919491</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0258</v>
+        <v>0.0384</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0318</v>
+        <v>0.0483</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3631454376617483</v>
@@ -23923,13 +23923,13 @@
         <v>0.5556768456190327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0311</v>
+        <v>0.0249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0421</v>
+        <v>0.0315</v>
       </c>
       <c r="I7" t="n">
         <v>-0.07087895804559008</v>
@@ -24001,13 +24001,13 @@
         <v>0.6668756225191297</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0315</v>
+        <v>0.0199</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="I8" t="n">
         <v>0.01635302288776052</v>
@@ -24079,13 +24079,13 @@
         <v>0.7780743994192265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0196</v>
+        <v>0.0195</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0281</v>
+        <v>0.0209</v>
       </c>
       <c r="I9" t="n">
         <v>0.2889992324773507</v>
@@ -24160,10 +24160,10 @@
         <v>0.025</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0195</v>
+        <v>0.0238</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0317</v>
+        <v>0.0283</v>
       </c>
       <c r="I10" t="n">
         <v>0.4439762533328095</v>
@@ -24235,13 +24235,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0246</v>
+        <v>0.0407</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0495</v>
+        <v>0.0801</v>
       </c>
       <c r="I11" t="n">
         <v>-0.09527613697322831</v>
